--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -7,8 +7,12 @@
     <workbookView windowWidth="28800" windowHeight="13515"/>
   </bookViews>
   <sheets>
-    <sheet name="规则配置表" sheetId="3" r:id="rId1"/>
+    <sheet name="枚举配置表1" sheetId="2" r:id="rId1"/>
+    <sheet name="类型配置表" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">枚举配置表1!$A$1:$M$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,9 +31,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>唯一值(中文说明)</t>
+  </si>
+  <si>
+    <t>枚举类型</t>
+  </si>
+  <si>
+    <t>枚举名字</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>枚举说明</t>
+  </si>
+  <si>
+    <t>路由类型-玩家ID</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>路由类型-区服ID</t>
+  </si>
+  <si>
+    <t>RegionID</t>
+  </si>
+  <si>
+    <t>发送类型-点对点</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>发送类型-广播</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>服务器类型-Gate</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>服务器类型-Game</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>服务器类型-Db</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>服务器类型-Gm</t>
+  </si>
+  <si>
+    <t>Gm</t>
   </si>
   <si>
     <t>Protobuf</t>
@@ -788,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +888,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,10 +1206,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="13" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M10" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1123,214 +1404,213 @@
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -33,19 +33,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Doc</t>
+    <t>ID/string</t>
+  </si>
+  <si>
+    <t>Type/string</t>
+  </si>
+  <si>
+    <t>Name/string</t>
+  </si>
+  <si>
+    <t>Value/int32</t>
+  </si>
+  <si>
+    <t>Doc/string</t>
   </si>
   <si>
     <t>唯一值(中文说明)</t>
@@ -120,7 +120,7 @@
     <t>Gm</t>
   </si>
   <si>
-    <t>Protobuf</t>
+    <t>Protobuf/string</t>
   </si>
   <si>
     <t>配置表支持的类型</t>
@@ -876,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,10 +889,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,17 +1212,17 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
+    <col min="1" max="1" width="22.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1258,128 +1261,128 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M10" etc:filterBottomFollowUsedRange="0">
@@ -1396,13 +1399,13 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13515" activeTab="4"/>
+    <workbookView windowHeight="16980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="枚举配置表1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>E:路由类型-玩家ID:ROUTE:UID:0</t>
   </si>
@@ -64,18 +64,21 @@
     <t>E:错误类型-成功:ErrorCode:Success:0</t>
   </si>
   <si>
-    <t>@gomaker:proto|枚举配置表1|Enum</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|枚举配置表2|Enum</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|错误码配置表|ErrorCode</t>
+    <t>@gomaker:proto|enum|枚举配置表1</t>
+  </si>
+  <si>
+    <t>@gomaker:proto|enum|枚举配置表2</t>
+  </si>
+  <si>
+    <t>@gomaker:proto|error_code|错误码配置表</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
+    <t>Go</t>
+  </si>
+  <si>
     <t>Protobuf</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>配置表支持的类型</t>
   </si>
   <si>
+    <t>对应go类型说明</t>
+  </si>
+  <si>
     <t>对应protobuf类型说明</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>bytes:表示该sheet是游戏配置。该表的第一行定义字段名和字段类型，第二行定义注释。表中不能存在任何枚举定义。</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>int64</t>
   </si>
   <si>
@@ -118,85 +127,25 @@
     <t>double</t>
   </si>
   <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>millisecond</t>
+  </si>
+  <si>
+    <t>proto:表示该sheet是枚举配置</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>[]byte</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>proto:表示该sheet是枚举配置</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>[]byte</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>map[string]int32</t>
-  </si>
-  <si>
-    <t>map&lt;string,int32&gt;</t>
-  </si>
-  <si>
-    <t>[]uint32</t>
-  </si>
-  <si>
-    <t>repeated uint32</t>
-  </si>
-  <si>
-    <t>[]uint64</t>
-  </si>
-  <si>
-    <t>repeated uint64</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>repeated int32</t>
-  </si>
-  <si>
-    <t>[]int64</t>
-  </si>
-  <si>
-    <t>repeated int64</t>
-  </si>
-  <si>
-    <t>[]float32</t>
-  </si>
-  <si>
-    <t>repeated float</t>
-  </si>
-  <si>
-    <t>[]float64</t>
-  </si>
-  <si>
-    <t>repeated double</t>
-  </si>
-  <si>
-    <t>[]bool</t>
-  </si>
-  <si>
-    <t>repeated bool</t>
-  </si>
-  <si>
-    <t>[]string</t>
-  </si>
-  <si>
-    <t>repeated string</t>
-  </si>
-  <si>
-    <t>[]Reward</t>
-  </si>
-  <si>
-    <t>repeated Reward</t>
   </si>
 </sst>
 </file>
@@ -1174,12 +1123,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E27:E28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="37.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.5384615384615" style="5" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1208,7 +1157,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
@@ -1256,7 +1205,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="42.75" style="1" customWidth="1"/>
   </cols>
@@ -1281,10 +1230,10 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="59" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.125" customWidth="1"/>
@@ -1315,240 +1264,208 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="2" customWidth="1"/>
+    <col min="1" max="2" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C20"/>
-    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16980" activeTab="4"/>
+    <workbookView windowHeight="16480" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="枚举配置表1" sheetId="2" r:id="rId1"/>
-    <sheet name="枚举配置表2" sheetId="7" r:id="rId2"/>
+    <sheet name="全局枚举配置表" sheetId="2" r:id="rId1"/>
+    <sheet name="道具枚举配置表" sheetId="8" r:id="rId2"/>
     <sheet name="错误码配置表" sheetId="5" r:id="rId3"/>
     <sheet name="生成表" sheetId="4" r:id="rId4"/>
     <sheet name="配表规则说明" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">枚举配置表1!$A$1:$F$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">枚举配置表2!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全局枚举配置表!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,20 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>E:路由类型-玩家ID:ROUTE:UID:0</t>
   </si>
   <si>
+    <t>E:发送类型-点对点:SEND:Point:0</t>
+  </si>
+  <si>
+    <t>E:服务器类型-Gate:SERVER:Gate:0</t>
+  </si>
+  <si>
     <t>E:路由类型-区服ID:ROUTE:RegionID:1</t>
   </si>
   <si>
-    <t>E:发送类型-点对点:SEND:Point:0</t>
-  </si>
-  <si>
-    <t>E:服务器类型-Gate:SERVER:Gate:0</t>
-  </si>
-  <si>
     <t>E:发送类型-广播:SEND:Broadcast:1</t>
   </si>
   <si>
@@ -61,13 +60,22 @@
     <t>E:服务器类型-Gm:SERVER:Gm:3</t>
   </si>
   <si>
+    <t>E:道具类型-空:PropertyType:Empty:0</t>
+  </si>
+  <si>
+    <t>E:道具类型-金币:PropertyType:Coin:1</t>
+  </si>
+  <si>
+    <t>E:道具类型-钻石:PropertyType:Diamond:2</t>
+  </si>
+  <si>
     <t>E:错误类型-成功:ErrorCode:Success:0</t>
   </si>
   <si>
-    <t>@gomaker:proto|enum|枚举配置表1</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|enum|枚举配置表2</t>
+    <t>@gomaker:proto|enum|全局枚举配置表</t>
+  </si>
+  <si>
+    <t>@gomaker:proto|property|道具枚举配置表</t>
   </si>
   <si>
     <t>@gomaker:proto|error_code|错误码配置表</t>
@@ -1120,26 +1128,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="40.5384615384615" style="5" customWidth="1"/>
-    <col min="2" max="6" width="9" style="1"/>
+    <col min="2" max="2" width="34.9423076923077" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1826923076923" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1151,43 +1183,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="41.3461538461538" customWidth="1"/>
+    <col min="2" max="2" width="51.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1222,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1212,7 +1232,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1229,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1242,17 +1262,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1266,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1280,182 +1300,182 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4"/>
     </row>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全局枚举配置表" sheetId="2" r:id="rId1"/>
     <sheet name="道具枚举配置表" sheetId="8" r:id="rId2"/>
     <sheet name="错误码配置表" sheetId="5" r:id="rId3"/>
-    <sheet name="生成表" sheetId="4" r:id="rId4"/>
-    <sheet name="配表规则说明" sheetId="3" r:id="rId5"/>
+    <sheet name="奖励类型配置表" sheetId="9" r:id="rId4"/>
+    <sheet name="生成表" sheetId="4" r:id="rId5"/>
+    <sheet name="配表规则说明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全局枚举配置表!$A$1:$F$10</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>E:路由类型-玩家ID:ROUTE:UID:0</t>
   </si>
@@ -72,6 +73,9 @@
     <t>E:错误类型-成功:ErrorCode:Success:0</t>
   </si>
   <si>
+    <t>E:奖励类型-无:RewardReason:None:0</t>
+  </si>
+  <si>
     <t>@gomaker:proto|enum|全局枚举配置表</t>
   </si>
   <si>
@@ -79,6 +83,9 @@
   </si>
   <si>
     <t>@gomaker:proto|error_code|错误码配置表</t>
+  </si>
+  <si>
+    <t>@gomaker:proto|reason|奖励类型配置表</t>
   </si>
   <si>
     <t>Type</t>
@@ -1134,11 +1141,11 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5384615384615" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.9423076923077" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1826923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5416666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.9416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1833333333333" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1189,10 +1196,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="41.3461538461538" customWidth="1"/>
-    <col min="2" max="2" width="51.5961538461538" customWidth="1"/>
+    <col min="1" max="1" width="41.35" customWidth="1"/>
+    <col min="2" max="2" width="51.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1222,10 +1229,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="42.75" style="1" customWidth="1"/>
   </cols>
@@ -1247,32 +1254,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="59" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1284,13 +1279,55 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C30:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="59" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="24.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
@@ -1300,182 +1337,182 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
     </row>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -76,16 +76,16 @@
     <t>E:奖励类型-无:RewardReason:None:0</t>
   </si>
   <si>
-    <t>@gomaker:proto|enum|全局枚举配置表</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|property|道具枚举配置表</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|error_code|错误码配置表</t>
-  </si>
-  <si>
-    <t>@gomaker:proto|reason|奖励类型配置表</t>
+    <t>@gomaker:enum|sheet:全局枚举配置表|out:enum</t>
+  </si>
+  <si>
+    <t>@gomaker:enum|sheet:道具枚举配置表|out:property</t>
+  </si>
+  <si>
+    <t>@gomaker:enum|sheet:错误码配置表|out:error_code</t>
+  </si>
+  <si>
+    <t>@gomaker:enum|sheet:奖励类型配置表|out:reason</t>
   </si>
   <si>
     <t>Type</t>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1282,12 +1282,12 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C30:C31"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="59" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
   </cols>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13515" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="13515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局枚举配置表" sheetId="2" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1281,7 +1281,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13515" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="全局枚举配置表" sheetId="2" r:id="rId1"/>
-    <sheet name="道具枚举配置表" sheetId="8" r:id="rId2"/>
-    <sheet name="错误码配置表" sheetId="5" r:id="rId3"/>
-    <sheet name="奖励类型配置表" sheetId="9" r:id="rId4"/>
+    <sheet name="路由表" sheetId="10" r:id="rId1"/>
+    <sheet name="全局表" sheetId="2" r:id="rId2"/>
+    <sheet name="错误码" sheetId="5" r:id="rId3"/>
+    <sheet name="奖励表" sheetId="12" r:id="rId4"/>
     <sheet name="生成表" sheetId="4" r:id="rId5"/>
     <sheet name="配表规则说明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全局枚举配置表!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全局表!$A$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,57 +35,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
-  <si>
-    <t>E:路由类型-玩家ID:ROUTE:UID:0</t>
-  </si>
-  <si>
-    <t>E:发送类型-点对点:SEND:Point:0</t>
-  </si>
-  <si>
-    <t>E:服务器类型-Gate:SERVER:Gate:0</t>
-  </si>
-  <si>
-    <t>E:路由类型-区服ID:ROUTE:RegionID:1</t>
-  </si>
-  <si>
-    <t>E:发送类型-广播:SEND:Broadcast:1</t>
-  </si>
-  <si>
-    <t>E:服务器类型-Game:SERVER:Game:1</t>
-  </si>
-  <si>
-    <t>E:服务器类型-Db:SERVER:Db:2</t>
-  </si>
-  <si>
-    <t>E:服务器类型-Gm:SERVER:Gm:3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>FuncName</t>
+  </si>
+  <si>
+    <t>ServerType</t>
+  </si>
+  <si>
+    <t>RouteType</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>@ServerType</t>
+  </si>
+  <si>
+    <t>@RouteType</t>
+  </si>
+  <si>
+    <t>[]@Reward</t>
+  </si>
+  <si>
+    <t>map[@PropertyType]@Reward</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>请求名称</t>
+  </si>
+  <si>
+    <t>应答协议</t>
+  </si>
+  <si>
+    <t>函数名称</t>
+  </si>
+  <si>
+    <t>服务类型</t>
+  </si>
+  <si>
+    <t>路由类型</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>HeartbeatRequest</t>
+  </si>
+  <si>
+    <t>HeartbeatResponse</t>
+  </si>
+  <si>
+    <t>服务类型-Game</t>
+  </si>
+  <si>
+    <t>路由类型-玩家ID</t>
+  </si>
+  <si>
+    <t>道具类型-金币,10|道具类型-钻石,100</t>
+  </si>
+  <si>
+    <t>E:路由类型-空:RouteType:None:0</t>
+  </si>
+  <si>
+    <t>E:服务类型-Gate:ServerType:Gate:0</t>
   </si>
   <si>
     <t>E:道具类型-空:PropertyType:Empty:0</t>
   </si>
   <si>
+    <t>E:品质类型-空:QualityType:None:0</t>
+  </si>
+  <si>
+    <t>E:路由类型-UID:RouteType:Uid:1</t>
+  </si>
+  <si>
+    <t>E:服务类型-Game:ServerType:Game:1</t>
+  </si>
+  <si>
     <t>E:道具类型-金币:PropertyType:Coin:1</t>
   </si>
   <si>
+    <t>E:品质类型-白:QualityType:White:1</t>
+  </si>
+  <si>
+    <t>E:路由类型-随机:RouteType:Random:2</t>
+  </si>
+  <si>
+    <t>E:服务类型-Db:ServerType:Db:2</t>
+  </si>
+  <si>
     <t>E:道具类型-钻石:PropertyType:Diamond:2</t>
   </si>
   <si>
+    <t>E:品质类型-蓝:QualityType:Blue:2</t>
+  </si>
+  <si>
+    <t>E:路由类型-地区:RouteType:RegionId:3</t>
+  </si>
+  <si>
+    <t>E:服务类型-Gm:ServerType:Gm:3</t>
+  </si>
+  <si>
+    <t>E:装备类型-剑:PropertyType:Sword:3</t>
+  </si>
+  <si>
     <t>E:错误类型-成功:ErrorCode:Success:0</t>
   </si>
   <si>
-    <t>E:奖励类型-无:RewardReason:None:0</t>
-  </si>
-  <si>
-    <t>@gomaker:enum|sheet:全局枚举配置表|out:enum</t>
-  </si>
-  <si>
-    <t>@gomaker:enum|sheet:道具枚举配置表|out:property</t>
-  </si>
-  <si>
-    <t>@gomaker:enum|sheet:错误码配置表|out:error_code</t>
-  </si>
-  <si>
-    <t>@gomaker:enum|sheet:奖励类型配置表|out:reason</t>
+    <t>PropType</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>PropertyType</t>
+  </si>
+  <si>
+    <t>QualityType</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>道具类型-金币</t>
+  </si>
+  <si>
+    <t>道具类型-钻石</t>
+  </si>
+  <si>
+    <t>装备类型-剑</t>
+  </si>
+  <si>
+    <t>struct|CS|奖励表@Reward</t>
+  </si>
+  <si>
+    <t>enum|CS|全局表@Global</t>
+  </si>
+  <si>
+    <t>enum|CS|错误码@ErrorCode</t>
+  </si>
+  <si>
+    <t>config|S|路由表@Route</t>
   </si>
   <si>
     <t>Type</t>
@@ -97,37 +223,46 @@
     <t>Protobuf</t>
   </si>
   <si>
+    <t>S:表示生成服务端配置</t>
+  </si>
+  <si>
+    <t>配置表支持的类型</t>
+  </si>
+  <si>
+    <t>对应go类型说明</t>
+  </si>
+  <si>
+    <t>对应protobuf类型说明</t>
+  </si>
+  <si>
+    <t>不在表中的类型，转表时不予处理。转表过程中，先生成table.proto文件，然后生成go文件。已经在proto文件中定义的枚举类型，转表时不予处理。该配置表只供转表工具使用</t>
+  </si>
+  <si>
+    <t>C:表示生成客户端配置</t>
+  </si>
+  <si>
     <t>E:表示一个枚举值定义</t>
   </si>
   <si>
-    <t>配置表支持的类型</t>
-  </si>
-  <si>
-    <t>对应go类型说明</t>
-  </si>
-  <si>
-    <t>对应protobuf类型说明</t>
-  </si>
-  <si>
-    <t>不在表中的类型，转表时不予处理。转表过程中，先生成table.proto文件，然后生成go文件。已经在proto文件中定义的枚举类型，转表时不予处理。该配置表只供转表工具使用</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
     <t>uint64</t>
   </si>
   <si>
+    <t>struct:表示生成pb结构</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
     <t>bytes:表示该sheet是游戏配置。该表的第一行定义字段名和字段类型，第二行定义注释。表中不能存在任何枚举定义。</t>
   </si>
   <si>
+    <t>enum:表示枚举类型</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>int64</t>
+    <t>config:表示配置表</t>
   </si>
   <si>
     <t>float32</t>
@@ -158,9 +293,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
 </sst>
 </file>
@@ -173,9 +305,31 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,6 +344,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -534,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,6 +711,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -675,154 +850,211 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1135,51 +1367,216 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="40.5416666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.9416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1833333333333" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
+    <col min="1" max="1" width="7.28846153846154" style="15" customWidth="1"/>
+    <col min="2" max="3" width="9.76923076923077" customWidth="1"/>
+    <col min="4" max="4" width="9.13461538461539" customWidth="1"/>
+    <col min="5" max="5" width="10.4134615384615" customWidth="1"/>
+    <col min="6" max="6" width="9.85576923076923" customWidth="1"/>
+    <col min="7" max="7" width="18.3461538461538" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.0192307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="5" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="5" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="17"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="17"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="17"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="17"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1190,32 +1587,91 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="41.35" customWidth="1"/>
-    <col min="2" max="2" width="51.6" customWidth="1"/>
+    <col min="1" max="1" width="48.5576923076923" style="19" customWidth="1"/>
+    <col min="2" max="2" width="45.8269230769231" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.6538461538462" style="20" customWidth="1"/>
+    <col min="4" max="4" width="35.8942307692308" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" ht="17.6" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1229,21 +1685,23 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="42.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5769230769231" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33.0096153846154" customWidth="1"/>
+    <col min="3" max="3" width="33.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1254,20 +1712,103 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="55.875" customWidth="1"/>
+    <col min="1" max="1" width="21.4711538461538" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21.4711538461538" style="15" customWidth="1"/>
+    <col min="4" max="6" width="20.6730769230769" style="15" customWidth="1"/>
+    <col min="7" max="15" width="9.23076923076923" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1279,37 +1820,34 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="66.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37.0192307692308" style="11" customWidth="1"/>
+    <col min="3" max="3" width="41.8173076923077" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.7403846153846" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11"/>
+    <col min="6" max="6" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1321,203 +1859,219 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="24.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.9615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
+      <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="路由表" sheetId="10" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="配表规则说明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全局表!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全局表!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -64,16 +64,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>@ServerType</t>
-  </si>
-  <si>
-    <t>@RouteType</t>
-  </si>
-  <si>
-    <t>[]@Reward</t>
-  </si>
-  <si>
-    <t>map[@PropertyType]@Reward</t>
+    <t>[]Reward</t>
   </si>
   <si>
     <t>唯一ID</t>
@@ -980,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,31 +991,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,21 +1006,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,216 +1328,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.28846153846154" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.28846153846154" style="9" customWidth="1"/>
     <col min="2" max="3" width="9.76923076923077" customWidth="1"/>
     <col min="4" max="4" width="9.13461538461539" customWidth="1"/>
     <col min="5" max="5" width="10.4134615384615" customWidth="1"/>
     <col min="6" max="6" width="9.85576923076923" customWidth="1"/>
-    <col min="7" max="7" width="18.3461538461538" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.0192307692308" customWidth="1"/>
+    <col min="7" max="7" width="18.3461538461538" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="17"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="17"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="17"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="17"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="17"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="17"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="17"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="17"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="17"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="17"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="17"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="17"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="17"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="17"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="17"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1587,91 +1445,73 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="48.5576923076923" style="19" customWidth="1"/>
-    <col min="2" max="2" width="45.8269230769231" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.6538461538462" style="20" customWidth="1"/>
-    <col min="4" max="4" width="35.8942307692308" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
+    <col min="1" max="1" width="48.5576923076923" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.8269230769231" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.6538461538462" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.8942307692308" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+    </row>
+    <row r="2" ht="17.6" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" ht="17.6" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4" ht="17.6" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1685,23 +1525,23 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="39.5769230769231" style="17" customWidth="1"/>
+    <col min="1" max="1" width="39.5769230769231" style="9" customWidth="1"/>
     <col min="2" max="2" width="33.0096153846154" customWidth="1"/>
     <col min="3" max="3" width="33.1730769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1715,99 +1555,99 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4711538461538" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.8653846153846" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.4711538461538" style="15" customWidth="1"/>
-    <col min="4" max="6" width="20.6730769230769" style="15" customWidth="1"/>
-    <col min="7" max="15" width="9.23076923076923" style="15"/>
+    <col min="1" max="1" width="21.4711538461538" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.4711538461538" style="9" customWidth="1"/>
+    <col min="4" max="6" width="20.6730769230769" style="9" customWidth="1"/>
+    <col min="7" max="15" width="9.23076923076923" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="15">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1823,31 +1663,31 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="37.0192307692308" style="11" customWidth="1"/>
-    <col min="3" max="3" width="41.8173076923077" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.7403846153846" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11"/>
-    <col min="6" max="6" width="9" style="12"/>
+    <col min="1" max="1" width="37.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.0192307692308" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.8173076923077" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.7403846153846" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1702,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1876,202 +1716,202 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="9" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/configure/table/define.xlsx
+++ b/configure/table/define.xlsx
@@ -15,7 +15,7 @@
     <sheet name="配表规则说明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全局表!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全局表!$A$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +97,7 @@
     <t>服务类型-Game</t>
   </si>
   <si>
-    <t>路由类型-玩家ID</t>
+    <t>路由类型-UID</t>
   </si>
   <si>
     <t>道具类型-金币,10|道具类型-钻石,100</t>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1445,13 +1445,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="48.5576923076923" style="6" customWidth="1"/>
     <col min="2" max="2" width="45.8269230769231" style="6" customWidth="1"/>
@@ -1512,6 +1512,24 @@
       <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="5" ht="16.8" spans="3:3">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" ht="16.8" spans="3:3">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" ht="16.8" spans="3:3">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" ht="16.8" spans="3:3">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" ht="16.8" spans="3:3">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" ht="16.8" spans="3:3">
+      <c r="C10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
